--- a/Addressbook/uploads/output.xlsx
+++ b/Addressbook/uploads/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t/>
   </si>
@@ -65,16 +65,49 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Renjith</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>31/10/2002</t>
+  </si>
+  <si>
+    <t>Athippillil House</t>
+  </si>
+  <si>
+    <t>Tagore Nagar</t>
+  </si>
+  <si>
+    <t>Muvattupuzha</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>krenjith567@gmail.com</t>
+  </si>
+  <si>
+    <t>Traveling, Music, Reading</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>Liju</t>
   </si>
   <si>
     <t>Mon</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2002-03-09</t>
+    <t>03/09/2002</t>
   </si>
   <si>
     <t>Aikaramattathil House</t>
@@ -86,58 +119,25 @@
     <t>Karimannoor</t>
   </si>
   <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>lijumon2002@gmail.com</t>
   </si>
   <si>
     <t>Traveling, Music, Crafting</t>
   </si>
   <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>Renjith</t>
-  </si>
-  <si>
-    <t>2002-10-31</t>
-  </si>
-  <si>
-    <t>Athippillil House</t>
-  </si>
-  <si>
-    <t>Tagore Nagar</t>
-  </si>
-  <si>
-    <t>Muvattupuzha</t>
-  </si>
-  <si>
-    <t>krenjith567@gmail.com</t>
-  </si>
-  <si>
-    <t>Traveling, Music, Reading</t>
-  </si>
-  <si>
     <t>Tony</t>
   </si>
   <si>
     <t>Stark</t>
   </si>
   <si>
-    <t>1970-05-29</t>
+    <t>29/05/1970</t>
   </si>
   <si>
     <t>Stark Mansion</t>
   </si>
   <si>
-    <t>Tony Street</t>
+    <t>Stark Street</t>
   </si>
   <si>
     <t>Malibu</t>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>tonystark@gmail.com</t>
+  </si>
+  <si>
+    <t>added</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
     <col min="2" max="2" width="9.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.67578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.65625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="9.5859375" customWidth="true" bestFit="true"/>
@@ -296,13 +299,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>685695.0</v>
+        <v>686661.0</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>9.87654321E9</v>
+        <v>9.847987434E9</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -343,13 +346,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>686661.0</v>
+        <v>685695.0</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="n">
-        <v>9.847987434E9</v>
+        <v>9.87654321E9</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -399,10 +402,10 @@
         <v>9.847987434E9</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Addressbook/uploads/output.xlsx
+++ b/Addressbook/uploads/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t/>
   </si>
@@ -65,16 +65,49 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>Liju</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2002-03-09</t>
+  </si>
+  <si>
+    <t>Aikaramattathil House</t>
+  </si>
+  <si>
+    <t>Udumbannoor</t>
+  </si>
+  <si>
+    <t>Karimannoor</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>lijumon2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Traveling, Music, Crafting</t>
+  </si>
+  <si>
+    <t>Title(Invalid),</t>
+  </si>
+  <si>
     <t>Krishna</t>
   </si>
   <si>
     <t>Renjith</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>31/10/2002</t>
+    <t>2002-10-31</t>
   </si>
   <si>
     <t>Athippillil House</t>
@@ -86,58 +119,25 @@
     <t>Muvattupuzha</t>
   </si>
   <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>krenjith567@gmail.com</t>
+    <t>krenjitffh567@gmail.com</t>
   </si>
   <si>
     <t>Traveling, Music, Reading</t>
   </si>
   <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>Liju</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>03/09/2002</t>
-  </si>
-  <si>
-    <t>Aikaramattathil House</t>
-  </si>
-  <si>
-    <t>Udumbannoor</t>
-  </si>
-  <si>
-    <t>Karimannoor</t>
-  </si>
-  <si>
-    <t>lijumon2002@gmail.com</t>
-  </si>
-  <si>
-    <t>Traveling, Music, Crafting</t>
-  </si>
-  <si>
     <t>Tony</t>
   </si>
   <si>
     <t>Stark</t>
   </si>
   <si>
-    <t>29/05/1970</t>
+    <t>1970-05-29</t>
   </si>
   <si>
     <t>Stark Mansion</t>
   </si>
   <si>
-    <t>Stark Street</t>
+    <t>Tony Street</t>
   </si>
   <si>
     <t>Malibu</t>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>tonystark@gmail.com</t>
-  </si>
-  <si>
-    <t>added</t>
   </si>
 </sst>
 </file>
@@ -204,20 +201,20 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="6" max="6" width="21.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="23.48828125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="23.89453125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="23.83984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="12.7578125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.08984375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="4.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.67578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="14.140625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="9.5859375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="8.17578125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -299,13 +296,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>686661.0</v>
+        <v>685695.0</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>9.847987434E9</v>
+        <v>9.87654321E9</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -346,13 +343,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>685695.0</v>
+        <v>686661.0</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="n">
-        <v>9.87654321E9</v>
+        <v>9.847987434E9</v>
       </c>
       <c r="N3" t="s">
         <v>36</v>
@@ -402,10 +399,10 @@
         <v>9.847987434E9</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Addressbook/uploads/output.xlsx
+++ b/Addressbook/uploads/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t/>
   </si>
@@ -71,42 +71,45 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Malerr</t>
+  </si>
+  <si>
+    <t>2002-03-09</t>
+  </si>
+  <si>
+    <t>Aikaramattathil House</t>
+  </si>
+  <si>
+    <t>Udumbannoor</t>
+  </si>
+  <si>
+    <t>Karimannoor</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>lijumon2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Traveling, Music, Crafting</t>
+  </si>
+  <si>
+    <t>Gender(Invalid)</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Renjith</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2002-03-09</t>
-  </si>
-  <si>
-    <t>Aikaramattathil House</t>
-  </si>
-  <si>
-    <t>Udumbannoor</t>
-  </si>
-  <si>
-    <t>Karimannoor</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>lijumon2002@gmail.com</t>
-  </si>
-  <si>
-    <t>Traveling, Music, Crafting</t>
-  </si>
-  <si>
-    <t>Title(Invalid),</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>Renjith</t>
-  </si>
-  <si>
     <t>2002-10-31</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>Traveling, Music, Reading</t>
   </si>
   <si>
+    <t>added</t>
+  </si>
+  <si>
     <t>Tony</t>
   </si>
   <si>
@@ -149,7 +155,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>tonystark@gmail.com</t>
+    <t>tonystrtfark@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
     <col min="6" max="6" width="21.0703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="23.89453125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="23.83984375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="12.7578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.94921875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.08984375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="4.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.98046875" customWidth="true" bestFit="true"/>
@@ -322,19 +328,19 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -346,16 +352,16 @@
         <v>686661.0</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="n">
         <v>9.847987434E9</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -363,37 +369,37 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
         <v>90265.0</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
         <v>9.847987434E9</v>
@@ -402,7 +408,7 @@
         <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
